--- a/pacio-fs-FunctionalStatus.xlsx
+++ b/pacio-fs-FunctionalStatus.xlsx
@@ -156,7 +156,7 @@
     <t/>
   </si>
   <si>
-    <t>pacio-fs-FunctionalStatus</t>
+    <t>Functional Status</t>
   </si>
   <si>
     <t>An exchange of functional status information.</t>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where( (coding.code = %resource.code.coding.code) and (coding.system = %resource.code.coding.system)).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -222,6 +222,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Observation.implicitRules</t>
   </si>
   <si>
@@ -344,6 +348,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -467,7 +475,7 @@
     <t>Codes providing the status of an observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1008,10 +1016,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1226,10 +1230,6 @@
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1455,47 +1455,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="245.77734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1951,7 +1951,7 @@
         <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>45</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1997,16 +1997,16 @@
         <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2056,7 +2056,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2068,7 +2068,7 @@
         <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>45</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2114,16 +2114,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2149,13 +2149,13 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>45</v>
@@ -2173,7 +2173,7 @@
         <v>45</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
@@ -2185,7 +2185,7 @@
         <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>45</v>
@@ -2208,11 +2208,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2231,16 +2231,16 @@
         <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2290,7 +2290,7 @@
         <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
@@ -2302,7 +2302,7 @@
         <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>45</v>
@@ -2314,7 +2314,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2325,11 +2325,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2348,16 +2348,16 @@
         <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2407,7 +2407,7 @@
         <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2431,7 +2431,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2442,11 +2442,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2465,16 +2465,16 @@
         <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2524,7 +2524,7 @@
         <v>45</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2536,7 +2536,7 @@
         <v>45</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>45</v>
@@ -2548,7 +2548,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2559,11 +2559,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2582,19 +2582,19 @@
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>45</v>
@@ -2643,7 +2643,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2655,7 +2655,7 @@
         <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>45</v>
@@ -2667,7 +2667,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2701,17 +2701,17 @@
         <v>56</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2760,7 +2760,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2772,22 +2772,22 @@
         <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2795,11 +2795,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2818,17 +2818,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2877,7 +2877,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2889,19 +2889,19 @@
         <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -2912,11 +2912,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2935,16 +2935,16 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2994,7 +2994,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3006,19 +3006,19 @@
         <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3052,19 +3052,19 @@
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3089,13 +3089,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3113,7 +3113,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>55</v>
@@ -3125,22 +3125,22 @@
         <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3171,19 +3171,19 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3208,13 +3208,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3232,7 +3232,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3244,7 +3244,7 @@
         <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>45</v>
@@ -3256,10 +3256,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3267,11 +3267,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3290,19 +3290,19 @@
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3327,13 +3327,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3351,7 +3351,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3363,30 +3363,30 @@
         <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3409,19 +3409,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3470,7 +3470,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3482,22 +3482,22 @@
         <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3528,16 +3528,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3587,7 +3587,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3599,7 +3599,7 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>45</v>
@@ -3608,13 +3608,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3622,11 +3622,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3645,19 +3645,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3706,7 +3706,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3718,22 +3718,22 @@
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3741,11 +3741,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3764,19 +3764,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3825,7 +3825,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3837,22 +3837,22 @@
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3883,16 +3883,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3942,7 +3942,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3954,7 +3954,7 @@
         <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>45</v>
@@ -3963,13 +3963,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4000,17 +4000,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4059,7 +4059,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4071,22 +4071,22 @@
         <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4117,19 +4117,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4178,7 +4178,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4187,33 +4187,33 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4236,19 +4236,19 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4273,13 +4273,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4297,7 +4297,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4306,10 +4306,10 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>45</v>
@@ -4318,10 +4318,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4332,11 +4332,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4355,19 +4355,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4392,13 +4392,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4416,7 +4416,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4428,30 +4428,30 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4474,19 +4474,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4535,7 +4535,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4547,7 +4547,7 @@
         <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>45</v>
@@ -4556,10 +4556,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4593,16 +4593,16 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4628,13 +4628,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4652,7 +4652,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4664,30 +4664,30 @@
         <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4710,19 +4710,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4747,13 +4747,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4771,7 +4771,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4783,7 +4783,7 @@
         <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>45</v>
@@ -4792,10 +4792,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4829,16 +4829,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4888,7 +4888,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4900,30 +4900,30 @@
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4946,16 +4946,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5005,7 +5005,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5017,30 +5017,30 @@
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5063,19 +5063,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5124,7 +5124,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5136,7 +5136,7 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
@@ -5145,10 +5145,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5182,13 +5182,13 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5239,7 +5239,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5263,7 +5263,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5274,11 +5274,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5297,16 +5297,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5356,7 +5356,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5368,7 +5368,7 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5380,7 +5380,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5391,11 +5391,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5414,19 +5414,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5475,7 +5475,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5487,7 +5487,7 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5499,7 +5499,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5533,13 +5533,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5590,7 +5590,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5599,10 +5599,10 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5611,10 +5611,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5648,13 +5648,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5705,7 +5705,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5714,10 +5714,10 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5726,10 +5726,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5763,19 +5763,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5800,13 +5800,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5824,7 +5824,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5836,19 +5836,19 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5882,19 +5882,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5919,13 +5919,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5943,7 +5943,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5955,19 +5955,19 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6001,17 +6001,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6060,7 +6060,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6072,7 +6072,7 @@
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
@@ -6084,7 +6084,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6118,13 +6118,13 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6175,7 +6175,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6187,7 +6187,7 @@
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6196,10 +6196,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6233,16 +6233,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6292,7 +6292,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6304,7 +6304,7 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
@@ -6313,10 +6313,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6350,16 +6350,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6409,7 +6409,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6421,7 +6421,7 @@
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6430,10 +6430,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6467,19 +6467,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6528,7 +6528,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6540,7 +6540,7 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>386</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6586,13 +6586,13 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6643,7 +6643,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6667,7 +6667,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6701,16 +6701,16 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6760,7 +6760,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6772,7 +6772,7 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6784,7 +6784,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6818,19 +6818,19 @@
         <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6879,7 +6879,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6891,7 +6891,7 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6903,7 +6903,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6937,7 +6937,7 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>393</v>
@@ -6949,7 +6949,7 @@
         <v>395</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6974,13 +6974,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7010,7 +7010,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7019,13 +7019,13 @@
         <v>396</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7056,19 +7056,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>399</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7129,7 +7129,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7138,16 +7138,16 @@
         <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7175,7 +7175,7 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>402</v>
@@ -7187,7 +7187,7 @@
         <v>404</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7212,13 +7212,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7245,10 +7245,10 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7257,10 +7257,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7294,19 +7294,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7331,13 +7331,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7367,25 +7367,25 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7422,10 +7422,10 @@
         <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7486,7 +7486,7 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7495,10 +7495,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>

--- a/pacio-fs-FunctionalStatus.xlsx
+++ b/pacio-fs-FunctionalStatus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="410">
   <si>
     <t>Path</t>
   </si>
@@ -469,6 +469,9 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -573,7 +576,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
@@ -850,7 +853,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Annotation}
 </t>
   </si>
   <si>
@@ -1201,7 +1204,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-DocumentReference|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Media|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-QuestionnaireResponse|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -3071,7 +3074,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>45</v>
@@ -3089,13 +3092,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3128,19 +3131,19 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3148,7 +3151,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3171,19 +3174,19 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3211,10 +3214,10 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3232,7 +3235,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3256,10 +3259,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3267,11 +3270,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3290,19 +3293,19 @@
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3327,13 +3330,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3351,7 +3354,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3366,27 +3369,27 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3409,19 +3412,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3470,7 +3473,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3485,19 +3488,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3505,7 +3508,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3528,16 +3531,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3587,7 +3590,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3608,13 +3611,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3622,11 +3625,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3645,19 +3648,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3706,7 +3709,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3721,19 +3724,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3741,11 +3744,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3764,19 +3767,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3825,7 +3828,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3840,19 +3843,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3860,7 +3863,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3883,16 +3886,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3942,7 +3945,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3963,13 +3966,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3988,7 +3991,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4000,17 +4003,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4059,7 +4062,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4074,19 +4077,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4094,7 +4097,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4105,7 +4108,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4117,19 +4120,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4178,7 +4181,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4187,7 +4190,7 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
@@ -4196,24 +4199,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4227,7 +4230,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
@@ -4236,19 +4239,19 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4273,13 +4276,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4297,7 +4300,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4306,7 +4309,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4321,7 +4324,7 @@
         <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4332,11 +4335,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4355,19 +4358,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4392,13 +4395,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4416,7 +4419,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4434,24 +4437,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4465,7 +4468,7 @@
         <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4474,19 +4477,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4535,7 +4538,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4556,10 +4559,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4570,7 +4573,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4593,16 +4596,16 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4628,13 +4631,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4652,7 +4655,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4670,24 +4673,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4710,19 +4713,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4747,13 +4750,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4771,7 +4774,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4792,10 +4795,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4806,7 +4809,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4829,16 +4832,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4888,7 +4891,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4906,24 +4909,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4946,16 +4949,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5005,7 +5008,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5023,24 +5026,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5063,19 +5066,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5124,7 +5127,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5136,7 +5139,7 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
@@ -5145,10 +5148,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5159,7 +5162,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5185,10 +5188,10 @@
         <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5239,7 +5242,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5263,7 +5266,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5274,7 +5277,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5303,7 +5306,7 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>104</v>
@@ -5356,7 +5359,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5380,7 +5383,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5391,11 +5394,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5417,10 +5420,10 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
@@ -5475,7 +5478,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5510,7 +5513,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5533,13 +5536,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5590,7 +5593,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5599,7 +5602,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5611,10 +5614,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5625,7 +5628,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5648,13 +5651,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5705,7 +5708,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5714,7 +5717,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5726,10 +5729,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5740,7 +5743,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5763,19 +5766,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5803,10 +5806,10 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5824,7 +5827,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5842,13 +5845,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5859,7 +5862,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5882,19 +5885,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5919,13 +5922,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5943,7 +5946,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5961,13 +5964,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5978,7 +5981,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6001,17 +6004,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6060,7 +6063,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6084,7 +6087,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6095,7 +6098,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6121,10 +6124,10 @@
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6175,7 +6178,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6196,10 +6199,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6210,7 +6213,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6233,16 +6236,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6292,7 +6295,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6313,10 +6316,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6325,9 +6328,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6341,7 +6344,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
@@ -6350,16 +6353,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6409,7 +6412,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6430,10 +6433,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6444,7 +6447,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6467,19 +6470,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6528,7 +6531,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6549,10 +6552,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6563,7 +6566,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6589,10 +6592,10 @@
         <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6643,7 +6646,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6667,7 +6670,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6678,7 +6681,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6707,7 +6710,7 @@
         <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>104</v>
@@ -6760,7 +6763,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6784,7 +6787,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6795,11 +6798,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6821,10 +6824,10 @@
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
@@ -6879,7 +6882,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6914,7 +6917,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6937,19 +6940,19 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6974,13 +6977,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -6998,7 +7001,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>55</v>
@@ -7016,16 +7019,16 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7033,7 +7036,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7056,19 +7059,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7117,7 +7120,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7135,24 +7138,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7175,19 +7178,19 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7212,13 +7215,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7236,7 +7239,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7245,7 +7248,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7260,7 +7263,7 @@
         <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7271,11 +7274,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7294,19 +7297,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7331,13 +7334,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7355,7 +7358,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7373,24 +7376,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7416,16 +7419,16 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7474,7 +7477,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7495,10 +7498,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>

--- a/pacio-fs-FunctionalStatus.xlsx
+++ b/pacio-fs-FunctionalStatus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="411">
   <si>
     <t>Path</t>
   </si>
@@ -546,13 +546,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/us/PACIO-functional-status/pacio-fs/vs/SectionGGFunctionalAbilitiesAndGoals</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -886,6 +880,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1260,6 +1257,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1482,7 +1485,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="88.09375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3330,13 +3333,11 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3369,27 +3370,27 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3412,19 +3413,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3473,7 +3474,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3488,19 +3489,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3508,7 +3509,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3531,16 +3532,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3590,7 +3591,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3611,13 +3612,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3625,11 +3626,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3648,19 +3649,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3709,7 +3710,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3724,19 +3725,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3744,11 +3745,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3767,19 +3768,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3828,7 +3829,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3843,19 +3844,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3863,7 +3864,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3886,16 +3887,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3945,7 +3946,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3966,13 +3967,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3980,7 +3981,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4003,17 +4004,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4062,7 +4063,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4077,19 +4078,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4097,7 +4098,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4120,19 +4121,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4181,7 +4182,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4190,7 +4191,7 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
@@ -4199,24 +4200,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4242,16 +4243,16 @@
         <v>154</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4276,14 +4277,14 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="X24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4309,7 +4310,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4324,7 +4325,7 @@
         <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4335,11 +4336,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4361,16 +4362,16 @@
         <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4395,13 +4396,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4419,7 +4420,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4437,24 +4438,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4477,19 +4478,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4538,7 +4539,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4559,10 +4560,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4573,7 +4574,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4599,13 +4600,13 @@
         <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4631,14 +4632,14 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4673,24 +4674,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4716,16 +4717,16 @@
         <v>154</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4750,14 +4751,14 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4795,10 +4796,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4809,7 +4810,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4832,16 +4833,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4891,7 +4892,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4909,24 +4910,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4949,16 +4950,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5008,7 +5009,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5026,24 +5027,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5066,19 +5067,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5127,7 +5128,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5139,19 +5140,19 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5162,7 +5163,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5188,10 +5189,10 @@
         <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5242,7 +5243,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5266,7 +5267,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5277,7 +5278,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5306,7 +5307,7 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>104</v>
@@ -5359,7 +5360,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5383,7 +5384,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5394,11 +5395,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5420,10 +5421,10 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
@@ -5478,7 +5479,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5513,7 +5514,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5536,13 +5537,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5593,7 +5594,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5602,7 +5603,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5614,10 +5615,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5628,7 +5629,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5651,13 +5652,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5708,7 +5709,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5717,7 +5718,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5729,10 +5730,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5743,7 +5744,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5769,16 +5770,16 @@
         <v>154</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5806,11 +5807,11 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5845,13 +5846,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5862,7 +5863,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5888,16 +5889,16 @@
         <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5922,14 +5923,14 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5964,13 +5965,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5981,7 +5982,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6004,17 +6005,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6063,7 +6064,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6087,7 +6088,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6098,7 +6099,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6124,10 +6125,10 @@
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6178,7 +6179,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6199,10 +6200,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6213,7 +6214,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6236,16 +6237,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6295,7 +6296,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6316,10 +6317,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6330,7 +6331,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6353,16 +6354,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6412,7 +6413,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6433,10 +6434,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6447,7 +6448,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6470,19 +6471,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6531,7 +6532,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6552,10 +6553,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6566,7 +6567,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6592,10 +6593,10 @@
         <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6646,7 +6647,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6670,7 +6671,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6681,7 +6682,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6710,7 +6711,7 @@
         <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>104</v>
@@ -6763,7 +6764,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6787,7 +6788,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6798,11 +6799,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6824,10 +6825,10 @@
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
@@ -6882,7 +6883,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6917,7 +6918,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6943,13 +6944,13 @@
         <v>154</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>168</v>
@@ -6977,13 +6978,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7001,7 +7002,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>55</v>
@@ -7019,16 +7020,16 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7036,7 +7037,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7059,19 +7060,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7120,7 +7121,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7138,24 +7139,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7181,16 +7182,16 @@
         <v>154</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7215,14 +7216,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="X49" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7248,7 +7249,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7263,7 +7264,7 @@
         <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7274,11 +7275,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7300,16 +7301,16 @@
         <v>154</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7334,13 +7335,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7358,7 +7359,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7376,24 +7377,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7419,16 +7420,16 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7477,7 +7478,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7498,10 +7499,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>

--- a/pacio-fs-FunctionalStatus.xlsx
+++ b/pacio-fs-FunctionalStatus.xlsx
@@ -4106,10 +4106,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>

--- a/pacio-fs-FunctionalStatus.xlsx
+++ b/pacio-fs-FunctionalStatus.xlsx
@@ -2719,7 +2719,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>44</v>
